--- a/Phase#1_data/chain.xlsx
+++ b/Phase#1_data/chain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlaboy/Documents/5a2s/databases/projects/DB-ADJJ/Phase#1_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataGeneration\project_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5211A4DA-942F-C24E-A5D3-81B40ED91BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8A5B4B9-D123-41B6-95D2-362DFDD3211C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="14700" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="chain" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -915,16 +915,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="A15:F15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -944,7 +944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -964,7 +964,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -984,7 +984,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-1</v>
       </c>
